--- a/fhir/core/3.3.0/CodeSystem-publication-status-dk-supplement.xlsx
+++ b/fhir/core/3.3.0/CodeSystem-publication-status-dk-supplement.xlsx
@@ -48,97 +48,97 @@
     <t>Status</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-12-11T10:16:20+01:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Denmark</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The lifecycle status of a Value Set or Concept Map.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Compositional</t>
+  </si>
+  <si>
+    <t>Version Needed?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/publication-status</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-12-11T09:51:05+01:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Denmark</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The lifecycle status of a Value Set or Concept Map.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>Compositional</t>
-  </si>
-  <si>
-    <t>Version Needed?</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>Supplements</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/publication-status</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>retired</t>
@@ -480,7 +480,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -490,7 +490,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
